--- a/Reports/tn_vs_xgb_sumrept4m.xlsx
+++ b/Reports/tn_vs_xgb_sumrept4m.xlsx
@@ -8,7 +8,8 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Summary" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="ByDataset" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="43">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -119,6 +120,36 @@
   </si>
   <si>
     <t xml:space="preserve">8.ex.InjuryDeath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROC(TN; MART)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROC(TN; RGBOOST; MHESS=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROC(TN; RGBOOST; MHESS=1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROC(XGBoost)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Std</t>
   </si>
 </sst>
 </file>
@@ -237,11 +268,7 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.8125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -333,31 +360,31 @@
         <v>50</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>0.842276144907724</v>
+        <v>0.846915584415585</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>0.848342447026658</v>
+        <v>0.851298701298701</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>0.867395762132604</v>
+        <v>0.870373376623376</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>0.847787081339713</v>
+        <v>0.852069805194805</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>0.0636145104630802</v>
+        <v>0.0653016395966196</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>0.0652237355842298</v>
+        <v>0.0648461455438862</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>0.0644486031385768</v>
+        <v>0.0641274863059178</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>0.0740721453748141</v>
+        <v>0.0745972145461731</v>
       </c>
       <c r="N2" s="0" t="n">
-        <v>0.0196086807928913</v>
+        <v>0.0183035714285714</v>
       </c>
       <c r="O2" s="0" t="n">
         <v>-0.0357142857142857</v>
@@ -366,7 +393,7 @@
         <v>0.0633116883116883</v>
       </c>
       <c r="Q2" s="0" t="n">
-        <v>0.030016940476815</v>
+        <v>0.0297936401308394</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -386,40 +413,40 @@
         <v>12210</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>0.927793443212573</v>
+        <v>0.927682169105618</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>0.927521202006975</v>
+        <v>0.92742891864474</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>0.927567904120239</v>
+        <v>0.927485690986021</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>0.927369476378435</v>
+        <v>0.927269238317118</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>0.00172586390984142</v>
+        <v>0.00175199201586103</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>0.00151504275097273</v>
+        <v>0.00153129709156725</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>0.00161438715844337</v>
+        <v>0.00161377044507705</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>0.00175741575382812</v>
+        <v>0.00176830719777517</v>
       </c>
       <c r="N3" s="0" t="n">
-        <v>0.000151725628540401</v>
+        <v>0.000412930788499843</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>-0.000845132355984268</v>
+        <v>-0.000559994835578559</v>
       </c>
       <c r="P3" s="0" t="n">
-        <v>0.000972050517002332</v>
+        <v>0.00194446950014182</v>
       </c>
       <c r="Q3" s="0" t="n">
-        <v>0.000566872848932588</v>
+        <v>0.000607146050038091</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -439,40 +466,40 @@
         <v>1750</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>0.996435454350161</v>
+        <v>0.996366073469388</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>0.99665519226638</v>
+        <v>0.99659787755102</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>0.996234139634801</v>
+        <v>0.996193763265306</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>0.996410191192267</v>
+        <v>0.996371689795919</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>0.00111401697291784</v>
+        <v>0.001127825509122</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>0.00108714962626378</v>
+        <v>0.00108875565584885</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>0.00119301004451869</v>
+        <v>0.00117514632582672</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>0.00110523803059425</v>
+        <v>0.00108945219780588</v>
       </c>
       <c r="N4" s="0" t="n">
-        <v>2.52631578947504E-005</v>
+        <v>0.000226187755102064</v>
       </c>
       <c r="O4" s="0" t="n">
-        <v>-0.000659591836734696</v>
+        <v>-0.000372897959183716</v>
       </c>
       <c r="P4" s="0" t="n">
-        <v>0.00106187755102039</v>
+        <v>0.00101159183673472</v>
       </c>
       <c r="Q4" s="0" t="n">
-        <v>0.000446018667398635</v>
+        <v>0.000347565919404055</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -492,40 +519,40 @@
         <v>650</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>0.86295035814388</v>
+        <v>0.862998579881657</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>0.858560448458424</v>
+        <v>0.858757633136095</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>0.86817116163189</v>
+        <v>0.867891124260355</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>0.860409841170975</v>
+        <v>0.861014437869823</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>0.0235386841208346</v>
+        <v>0.0229118876639749</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>0.0295332551968135</v>
+        <v>0.0287590827833601</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>0.0324826874837014</v>
+        <v>0.0316411205671404</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>0.0343266118444177</v>
+        <v>0.0335202979958252</v>
       </c>
       <c r="N5" s="0" t="n">
-        <v>0.00776132046091561</v>
+        <v>0.00687668639053254</v>
       </c>
       <c r="O5" s="0" t="n">
-        <v>-0.00964733727810663</v>
+        <v>-0.00993136094674563</v>
       </c>
       <c r="P5" s="0" t="n">
         <v>0.0289704142011835</v>
       </c>
       <c r="Q5" s="0" t="n">
-        <v>0.0110013843256464</v>
+        <v>0.011415427359208</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -545,40 +572,40 @@
         <v>4755</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>0.930458579118002</v>
+        <v>0.930650376466407</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>0.931368169921192</v>
+        <v>0.931552243977236</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>0.930004079813811</v>
+        <v>0.93023414596483</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>0.930970541738993</v>
+        <v>0.93109162260397</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>0.00297744634825053</v>
+        <v>0.00302230416026319</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>0.00279707851610416</v>
+        <v>0.00284421209268822</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>0.00259239139913602</v>
+        <v>0.00272495718802308</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>0.00324567369492565</v>
+        <v>0.00320517819554653</v>
       </c>
       <c r="N6" s="0" t="n">
-        <v>-0.000511962620990508</v>
+        <v>0.000460621373266234</v>
       </c>
       <c r="O6" s="0" t="n">
-        <v>-0.00442744747783419</v>
+        <v>-0.00232871418661063</v>
       </c>
       <c r="P6" s="0" t="n">
-        <v>0.00170802766211375</v>
+        <v>0.00363323255947501</v>
       </c>
       <c r="Q6" s="0" t="n">
-        <v>0.00171185901542006</v>
+        <v>0.00146890868167771</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -598,31 +625,31 @@
         <v>1850</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>0.99699000377476</v>
+        <v>0.996985105383242</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>0.996861276813964</v>
+        <v>0.996868133024134</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>0.996580507471516</v>
+        <v>0.996597135857419</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>0.997251856252002</v>
+        <v>0.997243858878094</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>0.000635184388409615</v>
+        <v>0.00061863106691209</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>0.000681100375984766</v>
+        <v>0.000663643130708652</v>
       </c>
       <c r="L7" s="0" t="n">
-        <v>0.000739367291804073</v>
+        <v>0.000723479279234886</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>0.000537406476019649</v>
+        <v>0.000524294363100771</v>
       </c>
       <c r="N7" s="0" t="n">
-        <v>-0.000261852477241981</v>
+        <v>-0.000258753494852443</v>
       </c>
       <c r="O7" s="0" t="n">
         <v>-0.000896505615140875</v>
@@ -631,7 +658,7 @@
         <v>0.000245457860729603</v>
       </c>
       <c r="Q7" s="0" t="n">
-        <v>0.000271349713327822</v>
+        <v>0.000264475788118675</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -651,40 +678,40 @@
         <v>1150</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>0.985733560101476</v>
+        <v>0.985936495418713</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>0.987081266974481</v>
+        <v>0.987197497315838</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>0.986325650987427</v>
+        <v>0.98646335129109</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>0.986599609706757</v>
+        <v>0.986778087103037</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>0.00244148860223051</v>
+        <v>0.00254377507529461</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>0.00205597680312486</v>
+        <v>0.00206754797723952</v>
       </c>
       <c r="L8" s="0" t="n">
-        <v>0.00233869580509349</v>
+        <v>0.002358146989043</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>0.00211621931641206</v>
+        <v>0.00220901864715797</v>
       </c>
       <c r="N8" s="0" t="n">
-        <v>-0.000866049605281074</v>
+        <v>0.000419410212801008</v>
       </c>
       <c r="O8" s="0" t="n">
-        <v>-0.00306897108706172</v>
+        <v>-0.00101032175105553</v>
       </c>
       <c r="P8" s="0" t="n">
-        <v>0.00100715459823075</v>
+        <v>0.00174826835919317</v>
       </c>
       <c r="Q8" s="0" t="n">
-        <v>0.00104813259591319</v>
+        <v>0.000760179753551909</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -704,31 +731,31 @@
         <v>1850</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>0.995888078120795</v>
+        <v>0.995858553688824</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>0.995683087924339</v>
+        <v>0.995629306062819</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>0.995661251009188</v>
+        <v>0.995575427319211</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>0.995286055899427</v>
+        <v>0.995234360847334</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>0.000652472080225298</v>
+        <v>0.000648650407430909</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>0.000634240367815726</v>
+        <v>0.000662524711509844</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>0.000686188261165727</v>
+        <v>0.000770315933989768</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>0.000914446783505751</v>
+        <v>0.000919591910454873</v>
       </c>
       <c r="N9" s="0" t="n">
-        <v>0.000602022221367918</v>
+        <v>0.000624192841490168</v>
       </c>
       <c r="O9" s="0" t="n">
         <v>-0.000364061358655965</v>
@@ -737,7 +764,7 @@
         <v>0.00132534696859032</v>
       </c>
       <c r="Q9" s="0" t="n">
-        <v>0.000459246928488697</v>
+        <v>0.00045786249226179</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -757,40 +784,40 @@
         <v>172</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>0.915728316005324</v>
+        <v>0.912388926862611</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>0.916073677015505</v>
+        <v>0.913113465481886</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>0.908094398676116</v>
+        <v>0.905030758714969</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>0.912102025398424</v>
+        <v>0.908465481886534</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>0.0170101796359166</v>
+        <v>0.0222968127815445</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>0.0180931239775592</v>
+        <v>0.0220315375838272</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>0.0157685054306294</v>
+        <v>0.0205736953563063</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>0.0153749936626276</v>
+        <v>0.0221006290140715</v>
       </c>
       <c r="N10" s="0" t="n">
-        <v>0.00362629060690002</v>
+        <v>0.00464798359535203</v>
       </c>
       <c r="O10" s="0" t="n">
-        <v>-0.0113465481886536</v>
+        <v>-0.00991114149008887</v>
       </c>
       <c r="P10" s="0" t="n">
-        <v>0.0149692412850307</v>
+        <v>0.0174982911825017</v>
       </c>
       <c r="Q10" s="0" t="n">
-        <v>0.00704760473137658</v>
+        <v>0.00815409547937284</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -810,40 +837,40 @@
         <v>76</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>0.678688909774436</v>
+        <v>0.678794642857143</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>0.681672932330827</v>
+        <v>0.683147321428572</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>0.648543233082707</v>
+        <v>0.651294642857143</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>0.649130639097744</v>
+        <v>0.652276785714286</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>0.0566017993308741</v>
+        <v>0.0550941751525616</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>0.0595172008392728</v>
+        <v>0.0583038331969737</v>
       </c>
       <c r="L11" s="0" t="n">
-        <v>0.0702673847616757</v>
+        <v>0.0694913071754963</v>
       </c>
       <c r="M11" s="0" t="n">
-        <v>0.0639824668212961</v>
+        <v>0.0638455948825152</v>
       </c>
       <c r="N11" s="0" t="n">
-        <v>0.0295582706766917</v>
+        <v>0.0308705357142857</v>
       </c>
       <c r="O11" s="0" t="n">
-        <v>-0.0281249999999998</v>
+        <v>-0.025</v>
       </c>
       <c r="P11" s="0" t="n">
-        <v>0.145535714285714</v>
+        <v>0.138392857142857</v>
       </c>
       <c r="Q11" s="0" t="n">
-        <v>0.0492232526481648</v>
+        <v>0.0421431944021646</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -863,40 +890,40 @@
         <v>819</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>0.970988782145734</v>
+        <v>0.971105200945626</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>0.972099762283649</v>
+        <v>0.972452718676123</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>0.972191770954074</v>
+        <v>0.972345091452034</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>0.974479545261062</v>
+        <v>0.974599041931069</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>0.0138696780583235</v>
+        <v>0.0135097892733492</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>0.0119417806207309</v>
+        <v>0.0117299660357151</v>
       </c>
       <c r="L12" s="0" t="n">
-        <v>0.0136382091318426</v>
+        <v>0.0132921547822801</v>
       </c>
       <c r="M12" s="0" t="n">
-        <v>0.00977111915371557</v>
+        <v>0.00952551157312253</v>
       </c>
       <c r="N12" s="0" t="n">
-        <v>-0.00349076311532848</v>
+        <v>-0.00214632325494591</v>
       </c>
       <c r="O12" s="0" t="n">
-        <v>-0.02100286176434</v>
+        <v>-0.0112479781012816</v>
       </c>
       <c r="P12" s="0" t="n">
-        <v>0.00716685330347155</v>
+        <v>0.00660072166231174</v>
       </c>
       <c r="Q12" s="0" t="n">
-        <v>0.00778916450184563</v>
+        <v>0.0047832494140446</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -916,31 +943,31 @@
         <v>1649</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>0.997961163173788</v>
+        <v>0.998027121609799</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>0.997456727077197</v>
+        <v>0.99752730505461</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>0.995961911806864</v>
+        <v>0.996084511613468</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>0.996429956017807</v>
+        <v>0.996505870233963</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>0.00123936059298186</v>
+        <v>0.00124184624941663</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>0.00138285486063737</v>
+        <v>0.00138248539577278</v>
       </c>
       <c r="L13" s="0" t="n">
-        <v>0.00242668959511978</v>
+        <v>0.00242476774600431</v>
       </c>
       <c r="M13" s="0" t="n">
-        <v>0.00166953110216066</v>
+        <v>0.00166008785025954</v>
       </c>
       <c r="N13" s="0" t="n">
-        <v>0.00153120715598157</v>
+        <v>0.00152125137583609</v>
       </c>
       <c r="O13" s="0" t="n">
         <v>-0.00132926932520538</v>
@@ -949,7 +976,7 @@
         <v>0.00413879716648313</v>
       </c>
       <c r="Q13" s="0" t="n">
-        <v>0.00121608986754594</v>
+        <v>0.00118449204878845</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -969,31 +996,31 @@
         <v>11302</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>0.931723248232272</v>
+        <v>0.931945704949991</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>0.931991896046253</v>
+        <v>0.932140764130379</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>0.930975750370077</v>
+        <v>0.931180320171356</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>0.93158201106409</v>
+        <v>0.931772463232062</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>0.00261369118788252</v>
+        <v>0.00273158837481689</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>0.00265756116646092</v>
+        <v>0.0026709825988296</v>
       </c>
       <c r="L14" s="0" t="n">
-        <v>0.00272388466852394</v>
+        <v>0.0028046428024734</v>
       </c>
       <c r="M14" s="0" t="n">
-        <v>0.00269527271681228</v>
+        <v>0.00275818667617729</v>
       </c>
       <c r="N14" s="0" t="n">
-        <v>0.000141237168181432</v>
+        <v>0.000173241717929068</v>
       </c>
       <c r="O14" s="0" t="n">
         <v>-0.0019356413280418</v>
@@ -1002,7 +1029,7 @@
         <v>0.00368388062054526</v>
       </c>
       <c r="Q14" s="0" t="n">
-        <v>0.00142552289736177</v>
+        <v>0.00139486483431148</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1022,40 +1049,40 @@
         <v>646</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0.706833031902909</v>
+        <v>0.706552508773959</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.709038447095408</v>
+        <v>0.710342666512399</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>0.681707740367928</v>
+        <v>0.685119942921054</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>0.684148616363308</v>
+        <v>0.686652975432913</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>0.0259670483390904</v>
+        <v>0.0253055852123353</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>0.0418300256368105</v>
+        <v>0.0411300212773829</v>
       </c>
       <c r="L15" s="0" t="n">
-        <v>0.0384599458369887</v>
+        <v>0.0404249804141905</v>
       </c>
       <c r="M15" s="0" t="n">
-        <v>0.0485052451058961</v>
+        <v>0.0485218062225689</v>
       </c>
       <c r="N15" s="0" t="n">
-        <v>0.022684415539601</v>
+        <v>0.0236896910794863</v>
       </c>
       <c r="O15" s="0" t="n">
-        <v>-0.0631146592618304</v>
+        <v>-0.0376605345366192</v>
       </c>
       <c r="P15" s="0" t="n">
-        <v>0.108237880365614</v>
+        <v>0.087913147441089</v>
       </c>
       <c r="Q15" s="0" t="n">
-        <v>0.0417755698542061</v>
+        <v>0.0346646315996801</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1075,40 +1102,40 @@
         <v>825</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.741623696169151</v>
+        <v>0.741416054484236</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.751897373109494</v>
+        <v>0.752220117845118</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>0.739139157699764</v>
+        <v>0.739840641261096</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>0.731714974139217</v>
+        <v>0.731378175696357</v>
       </c>
       <c r="J16" s="0" t="n">
-        <v>0.0466991733883724</v>
+        <v>0.0461152807768849</v>
       </c>
       <c r="K16" s="0" t="n">
-        <v>0.045061246796585</v>
+        <v>0.0445265989894734</v>
       </c>
       <c r="L16" s="0" t="n">
-        <v>0.0527633959286199</v>
+        <v>0.0522711690961391</v>
       </c>
       <c r="M16" s="0" t="n">
-        <v>0.0463878991014361</v>
+        <v>0.0458388394083417</v>
       </c>
       <c r="N16" s="0" t="n">
-        <v>0.00990872202993417</v>
+        <v>0.0208419421487603</v>
       </c>
       <c r="O16" s="0" t="n">
-        <v>-0.0605295378022651</v>
+        <v>-0.0430058157330884</v>
       </c>
       <c r="P16" s="0" t="n">
-        <v>0.0899908172635445</v>
+        <v>0.103611876339149</v>
       </c>
       <c r="Q16" s="0" t="n">
-        <v>0.0351100825800477</v>
+        <v>0.0333053113090319</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1128,40 +1155,1691 @@
         <v>3796</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>0.8445333046027</v>
+        <v>0.844817121294332</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>0.849870257822824</v>
+        <v>0.850284430030089</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>0.844448994903774</v>
+        <v>0.844239690721649</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>0.83921530321636</v>
+        <v>0.839103117446851</v>
       </c>
       <c r="J17" s="0" t="n">
-        <v>0.0140452609998404</v>
+        <v>0.0137294499936915</v>
       </c>
       <c r="K17" s="0" t="n">
-        <v>0.0154547155118348</v>
+        <v>0.0151561223385738</v>
       </c>
       <c r="L17" s="0" t="n">
-        <v>0.0153215153136753</v>
+        <v>0.014942215185909</v>
       </c>
       <c r="M17" s="0" t="n">
-        <v>0.016574650509222</v>
+        <v>0.0161403796617217</v>
       </c>
       <c r="N17" s="0" t="n">
-        <v>0.0053180013863396</v>
+        <v>0.0111813125832388</v>
       </c>
       <c r="O17" s="0" t="n">
-        <v>-0.0116768608494057</v>
+        <v>-0.0026957036452423</v>
       </c>
       <c r="P17" s="0" t="n">
-        <v>0.0203682237458688</v>
+        <v>0.0278868445715976</v>
       </c>
       <c r="Q17" s="0" t="n">
-        <v>0.00901114059544337</v>
+        <v>0.00925868538457982</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F81"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.8125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="28.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.16"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0.8469</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0.8513</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0.8704</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0.8521</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0.7159</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0.7451</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0.7273</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0.6696</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.9643</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0.9578</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0.987</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0.6696</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.2484</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0.2127</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0.2597</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0.3157</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.0653</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0.0648</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0.0641</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0.0746</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0.9277</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0.9274</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0.9275</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0.9273</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.9228</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0.9235</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0.9231</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0.9229</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0.9314</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0.9305</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0.9312</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0.9229</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0.0086</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0.0081</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>0.0084</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0.0018</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0.0015</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0.0016</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0.0018</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0.9964</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0.9966</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0.9962</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0.9964</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0.9943</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>0.9945</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0.9943</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0.9946</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0.9984</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>0.9983</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0.9982</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0.9946</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0.0041</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>0.0038</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0.0037</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0.0011</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>0.0011</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0.0012</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0.0011</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0.863</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>0.8588</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>0.8679</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>0.861</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0.7864</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>0.766</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>0.7562</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>0.748</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0.8936</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>0.8949</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>0.9001</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>0.748</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>0.1071</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>0.1289</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>0.1439</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>0.1433</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>0.0229</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>0.0288</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>0.0316</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>0.0335</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>0.9307</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>0.9316</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>0.9302</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>0.9311</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>0.9248</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>0.9245</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>0.925</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0.9343</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>0.935</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>0.9346</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>0.925</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>0.0095</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>0.0101</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>0.0101</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>0.0104</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>0.0028</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>0.0027</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>0.0032</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>0.9969</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>0.9966</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>0.9972</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>0.9954</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>0.9955</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>0.9958</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>0.9979</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>0.9983</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>0.9982</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>0.9958</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>0.0028</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>0.0032</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>0.0024</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>0.0006</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>0.0007</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>0.0007</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>0.0005</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>0.9859</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>0.9872</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>0.9865</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>0.9868</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>0.9812</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>0.984</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>0.9819</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>0.9834</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0.9898</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>0.9904</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>0.9897</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>0.9834</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>0.0086</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>0.0063</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>0.0078</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>0.0068</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>0.0021</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>0.0024</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>0.0022</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>0.9959</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>0.9956</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>0.9956</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>0.9952</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>0.9945</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>0.9939</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>0.994</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>0.9969</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>0.9967</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>0.9968</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>0.994</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>0.0019</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>0.0022</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>0.0029</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>0.0027</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>0.0006</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>0.0007</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>0.0008</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>0.0009</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>0.9124</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>0.9131</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>0.9085</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>0.8489</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>0.8569</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>0.8468</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>0.8394</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>0.9429</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>0.9279</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>0.8394</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>0.094</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>0.0882</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>0.0811</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>0.0967</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>0.0223</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>0.0206</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>0.0221</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>0.6788</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>0.6831</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>0.6513</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>0.6523</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>0.5576</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>0.5603</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>0.4679</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>0.5174</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>0.7728</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>0.7723</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>0.7433</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>0.5174</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>0.2152</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>0.2121</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>0.2754</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>0.2259</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>0.0551</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>0.0583</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>0.0695</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>0.0638</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>0.9711</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>0.9725</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>0.9723</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <v>0.9746</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>0.939</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>0.9474</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>0.9413</v>
+      </c>
+      <c r="F53" s="0" t="n">
+        <v>0.9531</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>0.9907</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>0.9876</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>0.9919</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <v>0.9531</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>0.0518</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>0.0402</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>0.0506</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>0.0354</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>0.0135</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>0.0117</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>0.0133</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <v>0.0095</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>0.9975</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>0.9961</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <v>0.9965</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>0.9949</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <v>0.9951</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <v>0.9912</v>
+      </c>
+      <c r="F58" s="0" t="n">
+        <v>0.9926</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>0.9996</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <v>0.9994</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>0.9991</v>
+      </c>
+      <c r="F59" s="0" t="n">
+        <v>0.9926</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>0.0047</v>
+      </c>
+      <c r="D60" s="0" t="n">
+        <v>0.0042</v>
+      </c>
+      <c r="E60" s="0" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="F60" s="0" t="n">
+        <v>0.0064</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>0.0012</v>
+      </c>
+      <c r="D61" s="0" t="n">
+        <v>0.0014</v>
+      </c>
+      <c r="E61" s="0" t="n">
+        <v>0.0024</v>
+      </c>
+      <c r="F61" s="0" t="n">
+        <v>0.0017</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>0.9319</v>
+      </c>
+      <c r="D62" s="0" t="n">
+        <v>0.9321</v>
+      </c>
+      <c r="E62" s="0" t="n">
+        <v>0.9312</v>
+      </c>
+      <c r="F62" s="0" t="n">
+        <v>0.9318</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>0.9264</v>
+      </c>
+      <c r="D63" s="0" t="n">
+        <v>0.9269</v>
+      </c>
+      <c r="E63" s="0" t="n">
+        <v>0.9266</v>
+      </c>
+      <c r="F63" s="0" t="n">
+        <v>0.9279</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>0.9368</v>
+      </c>
+      <c r="D64" s="0" t="n">
+        <v>0.937</v>
+      </c>
+      <c r="E64" s="0" t="n">
+        <v>0.9362</v>
+      </c>
+      <c r="F64" s="0" t="n">
+        <v>0.9279</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>0.0103</v>
+      </c>
+      <c r="D65" s="0" t="n">
+        <v>0.0101</v>
+      </c>
+      <c r="E65" s="0" t="n">
+        <v>0.0096</v>
+      </c>
+      <c r="F65" s="0" t="n">
+        <v>0.0099</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>0.0027</v>
+      </c>
+      <c r="D66" s="0" t="n">
+        <v>0.0027</v>
+      </c>
+      <c r="E66" s="0" t="n">
+        <v>0.0028</v>
+      </c>
+      <c r="F66" s="0" t="n">
+        <v>0.0028</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>0.7066</v>
+      </c>
+      <c r="D67" s="0" t="n">
+        <v>0.7103</v>
+      </c>
+      <c r="E67" s="0" t="n">
+        <v>0.6851</v>
+      </c>
+      <c r="F67" s="0" t="n">
+        <v>0.6867</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>0.6443</v>
+      </c>
+      <c r="D68" s="0" t="n">
+        <v>0.5903</v>
+      </c>
+      <c r="E68" s="0" t="n">
+        <v>0.5713</v>
+      </c>
+      <c r="F68" s="0" t="n">
+        <v>0.5717</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>0.7454</v>
+      </c>
+      <c r="D69" s="0" t="n">
+        <v>0.7768</v>
+      </c>
+      <c r="E69" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F69" s="0" t="n">
+        <v>0.5717</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>0.1011</v>
+      </c>
+      <c r="D70" s="0" t="n">
+        <v>0.1865</v>
+      </c>
+      <c r="E70" s="0" t="n">
+        <v>0.1787</v>
+      </c>
+      <c r="F70" s="0" t="n">
+        <v>0.2134</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>0.0253</v>
+      </c>
+      <c r="D71" s="0" t="n">
+        <v>0.0411</v>
+      </c>
+      <c r="E71" s="0" t="n">
+        <v>0.0404</v>
+      </c>
+      <c r="F71" s="0" t="n">
+        <v>0.0485</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>0.7414</v>
+      </c>
+      <c r="D72" s="0" t="n">
+        <v>0.7522</v>
+      </c>
+      <c r="E72" s="0" t="n">
+        <v>0.7398</v>
+      </c>
+      <c r="F72" s="0" t="n">
+        <v>0.7314</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>0.6378</v>
+      </c>
+      <c r="D73" s="0" t="n">
+        <v>0.6406</v>
+      </c>
+      <c r="E73" s="0" t="n">
+        <v>0.5799</v>
+      </c>
+      <c r="F73" s="0" t="n">
+        <v>0.6217</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>0.8289</v>
+      </c>
+      <c r="D74" s="0" t="n">
+        <v>0.828</v>
+      </c>
+      <c r="E74" s="0" t="n">
+        <v>0.8236</v>
+      </c>
+      <c r="F74" s="0" t="n">
+        <v>0.6217</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>0.1912</v>
+      </c>
+      <c r="D75" s="0" t="n">
+        <v>0.1874</v>
+      </c>
+      <c r="E75" s="0" t="n">
+        <v>0.2437</v>
+      </c>
+      <c r="F75" s="0" t="n">
+        <v>0.186</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>0.0461</v>
+      </c>
+      <c r="D76" s="0" t="n">
+        <v>0.0445</v>
+      </c>
+      <c r="E76" s="0" t="n">
+        <v>0.0523</v>
+      </c>
+      <c r="F76" s="0" t="n">
+        <v>0.0458</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>0.8448</v>
+      </c>
+      <c r="D77" s="0" t="n">
+        <v>0.8503</v>
+      </c>
+      <c r="E77" s="0" t="n">
+        <v>0.8442</v>
+      </c>
+      <c r="F77" s="0" t="n">
+        <v>0.8391</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>0.8172</v>
+      </c>
+      <c r="D78" s="0" t="n">
+        <v>0.8179</v>
+      </c>
+      <c r="E78" s="0" t="n">
+        <v>0.8168</v>
+      </c>
+      <c r="F78" s="0" t="n">
+        <v>0.808</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>0.8643</v>
+      </c>
+      <c r="D79" s="0" t="n">
+        <v>0.8801</v>
+      </c>
+      <c r="E79" s="0" t="n">
+        <v>0.8719</v>
+      </c>
+      <c r="F79" s="0" t="n">
+        <v>0.808</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>0.0471</v>
+      </c>
+      <c r="D80" s="0" t="n">
+        <v>0.0622</v>
+      </c>
+      <c r="E80" s="0" t="n">
+        <v>0.0552</v>
+      </c>
+      <c r="F80" s="0" t="n">
+        <v>0.0585</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>0.0137</v>
+      </c>
+      <c r="D81" s="0" t="n">
+        <v>0.0152</v>
+      </c>
+      <c r="E81" s="0" t="n">
+        <v>0.0149</v>
+      </c>
+      <c r="F81" s="0" t="n">
+        <v>0.0161</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/tn_vs_xgb_sumrept4m.xlsx
+++ b/Reports/tn_vs_xgb_sumrept4m.xlsx
@@ -5,11 +5,15 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="ByDataset" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="TreeNet-MART vs XGB" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="TreeNet-RGBOOST (MHESS=0) vs XGB" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="TreeNet-RGBOOST (MHESS=1) vs XGB" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Best TreeNet vs XGB" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="56">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -80,6 +84,9 @@
     <t xml:space="preserve">Adult</t>
   </si>
   <si>
+    <t xml:space="preserve">DEXTER</t>
+  </si>
+  <si>
     <t xml:space="preserve">GISETTE</t>
   </si>
   <si>
@@ -116,6 +123,9 @@
     <t xml:space="preserve">Seismic_bumps</t>
   </si>
   <si>
+    <t xml:space="preserve">Springleaf</t>
+  </si>
+  <si>
     <t xml:space="preserve">6.ex.Breast</t>
   </si>
   <si>
@@ -150,6 +160,39 @@
   </si>
   <si>
     <t xml:space="preserve">Std</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avg ROC (TN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min ROC (TN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min ROC (XGB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max ROC (TN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max ROC (XGB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StdDev ROC (TN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avg Delta ROC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min Delta ROC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max Delta ROC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StdDev Delta ROC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># times TN beats XGB</t>
   </si>
 </sst>
 </file>
@@ -265,10 +308,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.8125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -280,10 +327,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="32.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="22.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="29.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="19.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="17.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="29.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="28.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="29.12"/>
@@ -360,40 +407,40 @@
         <v>50</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>0.846915584415585</v>
+        <v>0.84692</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>0.851298701298701</v>
+        <v>0.8513</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>0.870373376623376</v>
+        <v>0.87037</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>0.852069805194805</v>
+        <v>0.85207</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>0.0653016395966196</v>
+        <v>0.0653</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>0.0648461455438862</v>
+        <v>0.06485</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>0.0641274863059178</v>
+        <v>0.06413</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>0.0745972145461731</v>
+        <v>0.0746</v>
       </c>
       <c r="N2" s="0" t="n">
-        <v>0.0183035714285714</v>
+        <v>0.0183</v>
       </c>
       <c r="O2" s="0" t="n">
-        <v>-0.0357142857142857</v>
+        <v>-0.03571</v>
       </c>
       <c r="P2" s="0" t="n">
-        <v>0.0633116883116883</v>
+        <v>0.06331</v>
       </c>
       <c r="Q2" s="0" t="n">
-        <v>0.0297936401308394</v>
+        <v>0.02979</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -413,40 +460,40 @@
         <v>12210</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>0.927682169105618</v>
+        <v>0.92768</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>0.92742891864474</v>
+        <v>0.92743</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>0.927485690986021</v>
+        <v>0.92749</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>0.927269238317118</v>
+        <v>0.92727</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>0.00175199201586103</v>
+        <v>0.00175</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>0.00153129709156725</v>
+        <v>0.00153</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>0.00161377044507705</v>
+        <v>0.00161</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>0.00176830719777517</v>
+        <v>0.00177</v>
       </c>
       <c r="N3" s="0" t="n">
-        <v>0.000412930788499843</v>
+        <v>0.00041</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>-0.000559994835578559</v>
+        <v>-0.00056</v>
       </c>
       <c r="P3" s="0" t="n">
-        <v>0.00194446950014182</v>
+        <v>0.00194</v>
       </c>
       <c r="Q3" s="0" t="n">
-        <v>0.000607146050038091</v>
+        <v>0.00061</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -457,49 +504,49 @@
         <v>20</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>3500</v>
+        <v>300</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>1750</v>
+        <v>150</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>0.996366073469388</v>
+        <v>0.97265</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>0.99659787755102</v>
+        <v>0.9733</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>0.996193763265306</v>
+        <v>0.96779</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>0.996371689795919</v>
+        <v>0.97589</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>0.001127825509122</v>
+        <v>0.01154</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>0.00108875565584885</v>
+        <v>0.01301</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>0.00117514632582672</v>
+        <v>0.01185</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>0.00108945219780588</v>
+        <v>0.01338</v>
       </c>
       <c r="N4" s="0" t="n">
-        <v>0.000226187755102064</v>
+        <v>-0.00324</v>
       </c>
       <c r="O4" s="0" t="n">
-        <v>-0.000372897959183716</v>
+        <v>-0.01298</v>
       </c>
       <c r="P4" s="0" t="n">
-        <v>0.00101159183673472</v>
+        <v>0.01707</v>
       </c>
       <c r="Q4" s="0" t="n">
-        <v>0.000347565919404055</v>
+        <v>0.00698</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -510,49 +557,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>1300</v>
+        <v>3500</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>650</v>
+        <v>1750</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>0.862998579881657</v>
+        <v>0.99637</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>0.858757633136095</v>
+        <v>0.9966</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>0.867891124260355</v>
+        <v>0.99619</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>0.861014437869823</v>
+        <v>0.99637</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>0.0229118876639749</v>
+        <v>0.00113</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>0.0287590827833601</v>
+        <v>0.00109</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>0.0316411205671404</v>
+        <v>0.00118</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>0.0335202979958252</v>
+        <v>0.00109</v>
       </c>
       <c r="N5" s="0" t="n">
-        <v>0.00687668639053254</v>
+        <v>0.00023</v>
       </c>
       <c r="O5" s="0" t="n">
-        <v>-0.00993136094674563</v>
+        <v>-0.00037</v>
       </c>
       <c r="P5" s="0" t="n">
-        <v>0.0289704142011835</v>
+        <v>0.00101</v>
       </c>
       <c r="Q5" s="0" t="n">
-        <v>0.011415427359208</v>
+        <v>0.00035</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -563,49 +610,49 @@
         <v>20</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>9510</v>
+        <v>1300</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>4755</v>
+        <v>650</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>0.930650376466407</v>
+        <v>0.863</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>0.931552243977236</v>
+        <v>0.85876</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>0.93023414596483</v>
+        <v>0.86789</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>0.93109162260397</v>
+        <v>0.86101</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>0.00302230416026319</v>
+        <v>0.02291</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>0.00284421209268822</v>
+        <v>0.02876</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>0.00272495718802308</v>
+        <v>0.03164</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>0.00320517819554653</v>
+        <v>0.03352</v>
       </c>
       <c r="N6" s="0" t="n">
-        <v>0.000460621373266234</v>
+        <v>0.00688</v>
       </c>
       <c r="O6" s="0" t="n">
-        <v>-0.00232871418661063</v>
+        <v>-0.00993</v>
       </c>
       <c r="P6" s="0" t="n">
-        <v>0.00363323255947501</v>
+        <v>0.02897</v>
       </c>
       <c r="Q6" s="0" t="n">
-        <v>0.00146890868167771</v>
+        <v>0.01142</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -616,49 +663,49 @@
         <v>20</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>3700</v>
+        <v>9510</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>1850</v>
+        <v>4755</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>0.996985105383242</v>
+        <v>0.93065</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>0.996868133024134</v>
+        <v>0.93155</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>0.996597135857419</v>
+        <v>0.93023</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>0.997243858878094</v>
+        <v>0.93109</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>0.00061863106691209</v>
+        <v>0.00302</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>0.000663643130708652</v>
+        <v>0.00284</v>
       </c>
       <c r="L7" s="0" t="n">
-        <v>0.000723479279234886</v>
+        <v>0.00272</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>0.000524294363100771</v>
+        <v>0.00321</v>
       </c>
       <c r="N7" s="0" t="n">
-        <v>-0.000258753494852443</v>
+        <v>0.00046</v>
       </c>
       <c r="O7" s="0" t="n">
-        <v>-0.000896505615140875</v>
+        <v>-0.00233</v>
       </c>
       <c r="P7" s="0" t="n">
-        <v>0.000245457860729603</v>
+        <v>0.00363</v>
       </c>
       <c r="Q7" s="0" t="n">
-        <v>0.000264475788118675</v>
+        <v>0.00147</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -669,49 +716,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>2301</v>
+        <v>3700</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>1150</v>
+        <v>1850</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>0.985936495418713</v>
+        <v>0.99699</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>0.987197497315838</v>
+        <v>0.99687</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>0.98646335129109</v>
+        <v>0.9966</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>0.986778087103037</v>
+        <v>0.99724</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>0.00254377507529461</v>
+        <v>0.00062</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>0.00206754797723952</v>
+        <v>0.00066</v>
       </c>
       <c r="L8" s="0" t="n">
-        <v>0.002358146989043</v>
+        <v>0.00072</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>0.00220901864715797</v>
+        <v>0.00052</v>
       </c>
       <c r="N8" s="0" t="n">
-        <v>0.000419410212801008</v>
+        <v>-0.00026</v>
       </c>
       <c r="O8" s="0" t="n">
-        <v>-0.00101032175105553</v>
+        <v>-0.0009</v>
       </c>
       <c r="P8" s="0" t="n">
-        <v>0.00174826835919317</v>
+        <v>0.00025</v>
       </c>
       <c r="Q8" s="0" t="n">
-        <v>0.000760179753551909</v>
+        <v>0.00026</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -722,49 +769,49 @@
         <v>20</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>3700</v>
+        <v>2301</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>1850</v>
+        <v>1150</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>0.995858553688824</v>
+        <v>0.98594</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>0.995629306062819</v>
+        <v>0.9872</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>0.995575427319211</v>
+        <v>0.98646</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>0.995234360847334</v>
+        <v>0.98678</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>0.000648650407430909</v>
+        <v>0.00254</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>0.000662524711509844</v>
+        <v>0.00207</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>0.000770315933989768</v>
+        <v>0.00236</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>0.000919591910454873</v>
+        <v>0.00221</v>
       </c>
       <c r="N9" s="0" t="n">
-        <v>0.000624192841490168</v>
+        <v>0.00042</v>
       </c>
       <c r="O9" s="0" t="n">
-        <v>-0.000364061358655965</v>
+        <v>-0.00101</v>
       </c>
       <c r="P9" s="0" t="n">
-        <v>0.00132534696859032</v>
+        <v>0.00175</v>
       </c>
       <c r="Q9" s="0" t="n">
-        <v>0.00045786249226179</v>
+        <v>0.00076</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -775,49 +822,49 @@
         <v>20</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>346</v>
+        <v>3700</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>172</v>
+        <v>1850</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>0.912388926862611</v>
+        <v>0.99586</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>0.913113465481886</v>
+        <v>0.99563</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>0.905030758714969</v>
+        <v>0.99558</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>0.908465481886534</v>
+        <v>0.99523</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>0.0222968127815445</v>
+        <v>0.00065</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>0.0220315375838272</v>
+        <v>0.00066</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>0.0205736953563063</v>
+        <v>0.00077</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>0.0221006290140715</v>
+        <v>0.00092</v>
       </c>
       <c r="N10" s="0" t="n">
-        <v>0.00464798359535203</v>
+        <v>0.00062</v>
       </c>
       <c r="O10" s="0" t="n">
-        <v>-0.00991114149008887</v>
+        <v>-0.00036</v>
       </c>
       <c r="P10" s="0" t="n">
-        <v>0.0174982911825017</v>
+        <v>0.00133</v>
       </c>
       <c r="Q10" s="0" t="n">
-        <v>0.00815409547937284</v>
+        <v>0.00046</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -828,49 +875,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>154</v>
+        <v>346</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>76</v>
+        <v>172</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>0.678794642857143</v>
+        <v>0.91239</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>0.683147321428572</v>
+        <v>0.91311</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>0.651294642857143</v>
+        <v>0.90503</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>0.652276785714286</v>
+        <v>0.90847</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>0.0550941751525616</v>
+        <v>0.0223</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>0.0583038331969737</v>
+        <v>0.02203</v>
       </c>
       <c r="L11" s="0" t="n">
-        <v>0.0694913071754963</v>
+        <v>0.02057</v>
       </c>
       <c r="M11" s="0" t="n">
-        <v>0.0638455948825152</v>
+        <v>0.0221</v>
       </c>
       <c r="N11" s="0" t="n">
-        <v>0.0308705357142857</v>
+        <v>0.00465</v>
       </c>
       <c r="O11" s="0" t="n">
-        <v>-0.025</v>
+        <v>-0.00991</v>
       </c>
       <c r="P11" s="0" t="n">
-        <v>0.138392857142857</v>
+        <v>0.0175</v>
       </c>
       <c r="Q11" s="0" t="n">
-        <v>0.0421431944021646</v>
+        <v>0.00815</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -881,49 +928,49 @@
         <v>20</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>1558</v>
+        <v>3</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>1640</v>
+        <v>154</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>819</v>
+        <v>76</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>0.971105200945626</v>
+        <v>0.67879</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>0.972452718676123</v>
+        <v>0.68315</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>0.972345091452034</v>
+        <v>0.65129</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>0.974599041931069</v>
+        <v>0.65228</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>0.0135097892733492</v>
+        <v>0.05509</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>0.0117299660357151</v>
+        <v>0.0583</v>
       </c>
       <c r="L12" s="0" t="n">
-        <v>0.0132921547822801</v>
+        <v>0.06949</v>
       </c>
       <c r="M12" s="0" t="n">
-        <v>0.00952551157312253</v>
+        <v>0.06385</v>
       </c>
       <c r="N12" s="0" t="n">
-        <v>-0.00214632325494591</v>
+        <v>0.03087</v>
       </c>
       <c r="O12" s="0" t="n">
-        <v>-0.0112479781012816</v>
+        <v>-0.025</v>
       </c>
       <c r="P12" s="0" t="n">
-        <v>0.00660072166231174</v>
+        <v>0.13839</v>
       </c>
       <c r="Q12" s="0" t="n">
-        <v>0.0047832494140446</v>
+        <v>0.04214</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -934,49 +981,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>166</v>
+        <v>1558</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>3300</v>
+        <v>1640</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>1649</v>
+        <v>819</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>0.998027121609799</v>
+        <v>0.97111</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>0.99752730505461</v>
+        <v>0.97245</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>0.996084511613468</v>
+        <v>0.97235</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>0.996505870233963</v>
+        <v>0.9746</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>0.00124184624941663</v>
+        <v>0.01351</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>0.00138248539577278</v>
+        <v>0.01173</v>
       </c>
       <c r="L13" s="0" t="n">
-        <v>0.00242476774600431</v>
+        <v>0.01329</v>
       </c>
       <c r="M13" s="0" t="n">
-        <v>0.00166008785025954</v>
+        <v>0.00953</v>
       </c>
       <c r="N13" s="0" t="n">
-        <v>0.00152125137583609</v>
+        <v>-0.00215</v>
       </c>
       <c r="O13" s="0" t="n">
-        <v>-0.00132926932520538</v>
+        <v>-0.01125</v>
       </c>
       <c r="P13" s="0" t="n">
-        <v>0.00413879716648313</v>
+        <v>0.0066</v>
       </c>
       <c r="Q13" s="0" t="n">
-        <v>0.00118449204878845</v>
+        <v>0.00478</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -987,49 +1034,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>16</v>
+        <v>166</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>22606</v>
+        <v>3300</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>11302</v>
+        <v>1649</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>0.931945704949991</v>
+        <v>0.99803</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>0.932140764130379</v>
+        <v>0.99753</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>0.931180320171356</v>
+        <v>0.99608</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>0.931772463232062</v>
+        <v>0.99651</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>0.00273158837481689</v>
+        <v>0.00124</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>0.0026709825988296</v>
+        <v>0.00138</v>
       </c>
       <c r="L14" s="0" t="n">
-        <v>0.0028046428024734</v>
+        <v>0.00242</v>
       </c>
       <c r="M14" s="0" t="n">
-        <v>0.00275818667617729</v>
+        <v>0.00166</v>
       </c>
       <c r="N14" s="0" t="n">
-        <v>0.000173241717929068</v>
+        <v>0.00152</v>
       </c>
       <c r="O14" s="0" t="n">
-        <v>-0.0019356413280418</v>
+        <v>-0.00133</v>
       </c>
       <c r="P14" s="0" t="n">
-        <v>0.00368388062054526</v>
+        <v>0.00414</v>
       </c>
       <c r="Q14" s="0" t="n">
-        <v>0.00139486483431148</v>
+        <v>0.00118</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1040,49 +1087,49 @@
         <v>20</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>1292</v>
+        <v>22606</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>646</v>
+        <v>11302</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0.706552508773959</v>
+        <v>0.93195</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.710342666512399</v>
+        <v>0.93214</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>0.685119942921054</v>
+        <v>0.93118</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>0.686652975432913</v>
+        <v>0.93177</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>0.0253055852123353</v>
+        <v>0.00273</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>0.0411300212773829</v>
+        <v>0.00267</v>
       </c>
       <c r="L15" s="0" t="n">
-        <v>0.0404249804141905</v>
+        <v>0.0028</v>
       </c>
       <c r="M15" s="0" t="n">
-        <v>0.0485218062225689</v>
+        <v>0.00276</v>
       </c>
       <c r="N15" s="0" t="n">
-        <v>0.0236896910794863</v>
+        <v>0.00017</v>
       </c>
       <c r="O15" s="0" t="n">
-        <v>-0.0376605345366192</v>
+        <v>-0.00194</v>
       </c>
       <c r="P15" s="0" t="n">
-        <v>0.087913147441089</v>
+        <v>0.00368</v>
       </c>
       <c r="Q15" s="0" t="n">
-        <v>0.0346646315996801</v>
+        <v>0.00139</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1090,52 +1137,52 @@
         <v>31</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>1652</v>
+        <v>1292</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>825</v>
+        <v>646</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.741416054484236</v>
+        <v>0.70655</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.752220117845118</v>
+        <v>0.71034</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>0.739840641261096</v>
+        <v>0.68512</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>0.731378175696357</v>
+        <v>0.68665</v>
       </c>
       <c r="J16" s="0" t="n">
-        <v>0.0461152807768849</v>
+        <v>0.02531</v>
       </c>
       <c r="K16" s="0" t="n">
-        <v>0.0445265989894734</v>
+        <v>0.04113</v>
       </c>
       <c r="L16" s="0" t="n">
-        <v>0.0522711690961391</v>
+        <v>0.04042</v>
       </c>
       <c r="M16" s="0" t="n">
-        <v>0.0458388394083417</v>
+        <v>0.04852</v>
       </c>
       <c r="N16" s="0" t="n">
-        <v>0.0208419421487603</v>
+        <v>0.02369</v>
       </c>
       <c r="O16" s="0" t="n">
-        <v>-0.0430058157330884</v>
+        <v>-0.03766</v>
       </c>
       <c r="P16" s="0" t="n">
-        <v>0.103611876339149</v>
+        <v>0.08791</v>
       </c>
       <c r="Q16" s="0" t="n">
-        <v>0.0333053113090319</v>
+        <v>0.03466</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1146,49 +1193,155 @@
         <v>20</v>
       </c>
       <c r="C17" s="0" t="n">
+        <v>1922</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>72616</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>36307</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>0.77645</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>0.77605</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>0.7753</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>0.77718</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>0.00271</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>0.00223</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>0.00256</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>0.00218</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>-0.00073</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <v>-0.00333</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <v>0.0013</v>
+      </c>
+      <c r="Q17" s="0" t="n">
+        <v>0.00127</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>1652</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>825</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>0.74142</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>0.75222</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>0.73984</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>0.73138</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>0.04612</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>0.04453</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>0.05227</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>0.04584</v>
+      </c>
+      <c r="N18" s="0" t="n">
+        <v>0.02084</v>
+      </c>
+      <c r="O18" s="0" t="n">
+        <v>-0.04301</v>
+      </c>
+      <c r="P18" s="0" t="n">
+        <v>0.10361</v>
+      </c>
+      <c r="Q18" s="0" t="n">
+        <v>0.03331</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C19" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D19" s="0" t="n">
         <v>7594</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E19" s="0" t="n">
         <v>3796</v>
       </c>
-      <c r="F17" s="0" t="n">
-        <v>0.844817121294332</v>
-      </c>
-      <c r="G17" s="0" t="n">
-        <v>0.850284430030089</v>
-      </c>
-      <c r="H17" s="0" t="n">
-        <v>0.844239690721649</v>
-      </c>
-      <c r="I17" s="0" t="n">
-        <v>0.839103117446851</v>
-      </c>
-      <c r="J17" s="0" t="n">
-        <v>0.0137294499936915</v>
-      </c>
-      <c r="K17" s="0" t="n">
-        <v>0.0151561223385738</v>
-      </c>
-      <c r="L17" s="0" t="n">
-        <v>0.014942215185909</v>
-      </c>
-      <c r="M17" s="0" t="n">
-        <v>0.0161403796617217</v>
-      </c>
-      <c r="N17" s="0" t="n">
-        <v>0.0111813125832388</v>
-      </c>
-      <c r="O17" s="0" t="n">
-        <v>-0.0026957036452423</v>
-      </c>
-      <c r="P17" s="0" t="n">
-        <v>0.0278868445715976</v>
-      </c>
-      <c r="Q17" s="0" t="n">
-        <v>0.00925868538457982</v>
+      <c r="F19" s="0" t="n">
+        <v>0.84482</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>0.85028</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>0.84424</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>0.8391</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>0.01373</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>0.01516</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>0.01494</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>0.01614</v>
+      </c>
+      <c r="N19" s="0" t="n">
+        <v>0.01118</v>
+      </c>
+      <c r="O19" s="0" t="n">
+        <v>-0.0027</v>
+      </c>
+      <c r="P19" s="0" t="n">
+        <v>0.02789</v>
+      </c>
+      <c r="Q19" s="0" t="n">
+        <v>0.00926</v>
       </c>
     </row>
   </sheetData>
@@ -1207,10 +1360,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:F91"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.8125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1227,19 +1384,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1247,19 +1404,19 @@
         <v>17</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>0.8469</v>
+        <v>0.84692</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>0.8513</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>0.8704</v>
+        <v>0.87037</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>0.8521</v>
+        <v>0.85207</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1267,19 +1424,19 @@
         <v>17</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>0.7159</v>
+        <v>0.71591</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>0.7451</v>
+        <v>0.74513</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>0.7273</v>
+        <v>0.72727</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>0.6696</v>
+        <v>0.66964</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1287,19 +1444,19 @@
         <v>17</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0.9643</v>
+        <v>0.96429</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>0.9578</v>
+        <v>0.95779</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>0.987</v>
+        <v>0.98701</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>0.6696</v>
+        <v>0.66964</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1307,19 +1464,19 @@
         <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>0.2484</v>
+        <v>0.24838</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>0.2127</v>
+        <v>0.21266</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>0.2597</v>
+        <v>0.25974</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>0.3157</v>
+        <v>0.31575</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1327,16 +1484,16 @@
         <v>17</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0.0653</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>0.0648</v>
+        <v>0.06485</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>0.0641</v>
+        <v>0.06413</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>0.0746</v>
@@ -1347,19 +1504,19 @@
         <v>18</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>0.9277</v>
+        <v>0.92768</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>0.9274</v>
+        <v>0.92743</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>0.9275</v>
+        <v>0.92749</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>0.9273</v>
+        <v>0.92727</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1367,19 +1524,19 @@
         <v>18</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>0.9228</v>
+        <v>0.92275</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>0.9235</v>
+        <v>0.92352</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>0.9231</v>
+        <v>0.92312</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>0.9229</v>
+        <v>0.92294</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1387,19 +1544,19 @@
         <v>18</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0.9314</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>0.9305</v>
+        <v>0.93054</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>0.9312</v>
+        <v>0.93121</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>0.9229</v>
+        <v>0.92294</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1407,19 +1564,19 @@
         <v>18</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>0.0086</v>
+        <v>0.00865</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>0.007</v>
+        <v>0.00702</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>0.0081</v>
+        <v>0.00809</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>0.0084</v>
+        <v>0.00845</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1427,19 +1584,19 @@
         <v>18</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>0.0018</v>
+        <v>0.00175</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>0.0015</v>
+        <v>0.00153</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>0.0016</v>
+        <v>0.00161</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>0.0018</v>
+        <v>0.00177</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1447,19 +1604,19 @@
         <v>19</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>0.9964</v>
+        <v>0.97265</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>0.9966</v>
+        <v>0.9733</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>0.9962</v>
+        <v>0.96779</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>0.9964</v>
+        <v>0.97589</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1467,19 +1624,19 @@
         <v>19</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>0.9943</v>
+        <v>0.94382</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>0.9945</v>
+        <v>0.93884</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>0.9943</v>
+        <v>0.94009</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>0.9946</v>
+        <v>0.94471</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1487,19 +1644,19 @@
         <v>19</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>0.9984</v>
+        <v>0.99449</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>0.9983</v>
+        <v>0.98969</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>0.9982</v>
+        <v>0.98827</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>0.9946</v>
+        <v>0.94471</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1507,19 +1664,19 @@
         <v>19</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>0.0041</v>
+        <v>0.05067</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.0038</v>
+        <v>0.05084</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>0.004</v>
+        <v>0.04818</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0.0037</v>
+        <v>0.05191</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1527,19 +1684,19 @@
         <v>19</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>0.0011</v>
+        <v>0.01154</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.0011</v>
+        <v>0.01301</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0.0012</v>
+        <v>0.01185</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.0011</v>
+        <v>0.01338</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1547,19 +1704,19 @@
         <v>20</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>0.863</v>
+        <v>0.99637</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>0.8588</v>
+        <v>0.9966</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>0.8679</v>
+        <v>0.99619</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>0.861</v>
+        <v>0.99637</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1567,19 +1724,19 @@
         <v>20</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>0.7864</v>
+        <v>0.99432</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>0.766</v>
+        <v>0.99452</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>0.7562</v>
+        <v>0.99425</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>0.748</v>
+        <v>0.99465</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1587,19 +1744,19 @@
         <v>20</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>0.8936</v>
+        <v>0.9984</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>0.8949</v>
+        <v>0.99834</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>0.9001</v>
+        <v>0.99825</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>0.748</v>
+        <v>0.99465</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1607,19 +1764,19 @@
         <v>20</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>0.1071</v>
+        <v>0.00408</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>0.1289</v>
+        <v>0.00382</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>0.1439</v>
+        <v>0.004</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>0.1433</v>
+        <v>0.00374</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1627,19 +1784,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>0.0229</v>
+        <v>0.00113</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>0.0288</v>
+        <v>0.00109</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>0.0316</v>
+        <v>0.00118</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>0.0335</v>
+        <v>0.00109</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1647,19 +1804,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>0.9307</v>
+        <v>0.863</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>0.9316</v>
+        <v>0.85876</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>0.9302</v>
+        <v>0.86789</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>0.9311</v>
+        <v>0.86101</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1667,19 +1824,19 @@
         <v>21</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>0.9248</v>
+        <v>0.78644</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>0.925</v>
+        <v>0.76598</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>0.9245</v>
+        <v>0.7562</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>0.925</v>
+        <v>0.74798</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1687,19 +1844,19 @@
         <v>21</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>0.9343</v>
+        <v>0.89357</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>0.935</v>
+        <v>0.8949</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>0.9346</v>
+        <v>0.90012</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>0.925</v>
+        <v>0.74798</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1707,19 +1864,19 @@
         <v>21</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>0.0095</v>
+        <v>0.10712</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>0.0101</v>
+        <v>0.12892</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>0.0101</v>
+        <v>0.14391</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>0.0104</v>
+        <v>0.14328</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1727,19 +1884,19 @@
         <v>21</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>0.003</v>
+        <v>0.02291</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>0.0028</v>
+        <v>0.02876</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>0.0027</v>
+        <v>0.03164</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>0.0032</v>
+        <v>0.03352</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1747,19 +1904,19 @@
         <v>22</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>0.997</v>
+        <v>0.93065</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>0.9969</v>
+        <v>0.93155</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>0.9966</v>
+        <v>0.93023</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>0.9972</v>
+        <v>0.93109</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1767,19 +1924,19 @@
         <v>22</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>0.9954</v>
+        <v>0.92482</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>0.9955</v>
+        <v>0.92497</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>0.995</v>
+        <v>0.92453</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>0.9958</v>
+        <v>0.92501</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1787,19 +1944,19 @@
         <v>22</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>0.9979</v>
+        <v>0.93429</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>0.9983</v>
+        <v>0.93505</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>0.9982</v>
+        <v>0.93461</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>0.9958</v>
+        <v>0.92501</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1807,19 +1964,19 @@
         <v>22</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>0.0025</v>
+        <v>0.00947</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>0.0028</v>
+        <v>0.01008</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>0.0032</v>
+        <v>0.01007</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>0.0024</v>
+        <v>0.01044</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1827,19 +1984,19 @@
         <v>22</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>0.0006</v>
+        <v>0.00302</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>0.0007</v>
+        <v>0.00284</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>0.0007</v>
+        <v>0.00272</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>0.0005</v>
+        <v>0.00321</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1847,19 +2004,19 @@
         <v>23</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>0.9859</v>
+        <v>0.99699</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>0.9872</v>
+        <v>0.99687</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>0.9865</v>
+        <v>0.9966</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>0.9868</v>
+        <v>0.99724</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1867,19 +2024,19 @@
         <v>23</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>0.9812</v>
+        <v>0.99544</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>0.984</v>
+        <v>0.99554</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>0.9819</v>
+        <v>0.99501</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>0.9834</v>
+        <v>0.9958</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1887,19 +2044,19 @@
         <v>23</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>0.9898</v>
+        <v>0.9979</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>0.9904</v>
+        <v>0.99829</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>0.9897</v>
+        <v>0.99824</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>0.9834</v>
+        <v>0.9958</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1907,19 +2064,19 @@
         <v>23</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>0.0086</v>
+        <v>0.00246</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>0.0063</v>
+        <v>0.00275</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>0.0078</v>
+        <v>0.00323</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>0.0068</v>
+        <v>0.00244</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1927,19 +2084,19 @@
         <v>23</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>0.0025</v>
+        <v>0.00062</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>0.0021</v>
+        <v>0.00066</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>0.0024</v>
+        <v>0.00072</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>0.0022</v>
+        <v>0.00052</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1947,19 +2104,19 @@
         <v>24</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>0.9959</v>
+        <v>0.98594</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>0.9956</v>
+        <v>0.9872</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>0.9956</v>
+        <v>0.98646</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>0.9952</v>
+        <v>0.98678</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1967,19 +2124,19 @@
         <v>24</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>0.995</v>
+        <v>0.98123</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>0.9945</v>
+        <v>0.98401</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>0.9939</v>
+        <v>0.98186</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>0.994</v>
+        <v>0.98336</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1987,19 +2144,19 @@
         <v>24</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>0.9969</v>
+        <v>0.98979</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>0.9967</v>
+        <v>0.99035</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>0.9968</v>
+        <v>0.98969</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>0.994</v>
+        <v>0.98336</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2007,19 +2164,19 @@
         <v>24</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>0.0019</v>
+        <v>0.00856</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>0.0022</v>
+        <v>0.00634</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>0.0029</v>
+        <v>0.00783</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>0.0027</v>
+        <v>0.00681</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2027,19 +2184,19 @@
         <v>24</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>0.0006</v>
+        <v>0.00254</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>0.0007</v>
+        <v>0.00207</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>0.0008</v>
+        <v>0.00236</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>0.0009</v>
+        <v>0.00221</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2047,19 +2204,19 @@
         <v>25</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>0.9124</v>
+        <v>0.99586</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>0.9131</v>
+        <v>0.99563</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>0.905</v>
+        <v>0.99558</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>0.9085</v>
+        <v>0.99523</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2067,19 +2224,19 @@
         <v>25</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>0.8489</v>
+        <v>0.99496</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>0.8569</v>
+        <v>0.9945</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>0.8468</v>
+        <v>0.99394</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>0.8394</v>
+        <v>0.99401</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2087,19 +2244,19 @@
         <v>25</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>0.9429</v>
+        <v>0.99686</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>0.945</v>
+        <v>0.99666</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>0.9279</v>
+        <v>0.9968</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>0.8394</v>
+        <v>0.99401</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2107,19 +2264,19 @@
         <v>25</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>0.094</v>
+        <v>0.0019</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>0.0882</v>
+        <v>0.00216</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>0.0811</v>
+        <v>0.00286</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>0.0967</v>
+        <v>0.00271</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2127,19 +2284,19 @@
         <v>25</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>0.0223</v>
+        <v>0.00065</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>0.022</v>
+        <v>0.00066</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>0.0206</v>
+        <v>0.00077</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>0.0221</v>
+        <v>0.00092</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2147,19 +2304,19 @@
         <v>26</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>0.6788</v>
+        <v>0.91239</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>0.6831</v>
+        <v>0.91311</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>0.6513</v>
+        <v>0.90503</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>0.6523</v>
+        <v>0.90847</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2167,19 +2324,19 @@
         <v>26</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>0.5576</v>
+        <v>0.84894</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>0.5603</v>
+        <v>0.85687</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>0.4679</v>
+        <v>0.84682</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>0.5174</v>
+        <v>0.83937</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2187,19 +2344,19 @@
         <v>26</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>0.7728</v>
+        <v>0.94293</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>0.7723</v>
+        <v>0.94504</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>0.7433</v>
+        <v>0.92789</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>0.5174</v>
+        <v>0.83937</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2207,19 +2364,19 @@
         <v>26</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>0.2152</v>
+        <v>0.09398</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>0.2121</v>
+        <v>0.08817</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>0.2754</v>
+        <v>0.08107</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>0.2259</v>
+        <v>0.09665</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2227,19 +2384,19 @@
         <v>26</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>0.0551</v>
+        <v>0.0223</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>0.0583</v>
+        <v>0.02203</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>0.0695</v>
+        <v>0.02057</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>0.0638</v>
+        <v>0.0221</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2247,19 +2404,19 @@
         <v>27</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>0.9711</v>
+        <v>0.67879</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>0.9725</v>
+        <v>0.68315</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>0.9723</v>
+        <v>0.65129</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>0.9746</v>
+        <v>0.65228</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2267,19 +2424,19 @@
         <v>27</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>0.939</v>
+        <v>0.55759</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>0.9474</v>
+        <v>0.56027</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>0.9413</v>
+        <v>0.46786</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>0.9531</v>
+        <v>0.51741</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2287,19 +2444,19 @@
         <v>27</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>0.9907</v>
+        <v>0.77277</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>0.9876</v>
+        <v>0.77232</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>0.9919</v>
+        <v>0.7433</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>0.9531</v>
+        <v>0.51741</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2307,19 +2464,19 @@
         <v>27</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>0.0518</v>
+        <v>0.21518</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>0.0402</v>
+        <v>0.21205</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>0.0506</v>
+        <v>0.27545</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>0.0354</v>
+        <v>0.22589</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2327,19 +2484,19 @@
         <v>27</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>0.0135</v>
+        <v>0.05509</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>0.0117</v>
+        <v>0.0583</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>0.0133</v>
+        <v>0.06949</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>0.0095</v>
+        <v>0.06385</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2347,19 +2504,19 @@
         <v>28</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>0.998</v>
+        <v>0.97111</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>0.9975</v>
+        <v>0.97245</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>0.9961</v>
+        <v>0.97235</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>0.9965</v>
+        <v>0.9746</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2367,19 +2524,19 @@
         <v>28</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>0.9949</v>
+        <v>0.93896</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>0.9951</v>
+        <v>0.94741</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>0.9912</v>
+        <v>0.94129</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>0.9926</v>
+        <v>0.95307</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2387,19 +2544,19 @@
         <v>28</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>0.9996</v>
+        <v>0.99074</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>0.9994</v>
+        <v>0.98761</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>0.9991</v>
+        <v>0.99194</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>0.9926</v>
+        <v>0.95307</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2407,19 +2564,19 @@
         <v>28</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>0.0047</v>
+        <v>0.05177</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>0.0042</v>
+        <v>0.0402</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>0.0079</v>
+        <v>0.05065</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>0.0064</v>
+        <v>0.03544</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2427,19 +2584,19 @@
         <v>28</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>0.0012</v>
+        <v>0.01351</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>0.0014</v>
+        <v>0.01173</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>0.0024</v>
+        <v>0.01329</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>0.0017</v>
+        <v>0.00953</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2447,19 +2604,19 @@
         <v>29</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>0.9319</v>
+        <v>0.99803</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>0.9321</v>
+        <v>0.99753</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>0.9312</v>
+        <v>0.99608</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>0.9318</v>
+        <v>0.99651</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2467,19 +2624,19 @@
         <v>29</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>0.9264</v>
+        <v>0.9949</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>0.9269</v>
+        <v>0.99514</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>0.9266</v>
+        <v>0.99122</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>0.9279</v>
+        <v>0.99258</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2487,19 +2644,19 @@
         <v>29</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>0.9368</v>
+        <v>0.99957</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>0.937</v>
+        <v>0.99937</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>0.9362</v>
+        <v>0.9991</v>
       </c>
       <c r="F64" s="0" t="n">
-        <v>0.9279</v>
+        <v>0.99258</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2507,19 +2664,19 @@
         <v>29</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>0.0103</v>
+        <v>0.00467</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>0.0101</v>
+        <v>0.00423</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>0.0096</v>
+        <v>0.00788</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>0.0099</v>
+        <v>0.00642</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2527,19 +2684,19 @@
         <v>29</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>0.0027</v>
+        <v>0.00124</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>0.0027</v>
+        <v>0.00138</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>0.0028</v>
+        <v>0.00242</v>
       </c>
       <c r="F66" s="0" t="n">
-        <v>0.0028</v>
+        <v>0.00166</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2547,19 +2704,19 @@
         <v>30</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>0.7066</v>
+        <v>0.93195</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>0.7103</v>
+        <v>0.93214</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>0.6851</v>
+        <v>0.93118</v>
       </c>
       <c r="F67" s="0" t="n">
-        <v>0.6867</v>
+        <v>0.93177</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2567,19 +2724,19 @@
         <v>30</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>0.6443</v>
+        <v>0.92644</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>0.5903</v>
+        <v>0.9269</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>0.5713</v>
+        <v>0.92662</v>
       </c>
       <c r="F68" s="0" t="n">
-        <v>0.5717</v>
+        <v>0.92793</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2587,19 +2744,19 @@
         <v>30</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>0.7454</v>
+        <v>0.93677</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>0.7768</v>
+        <v>0.93697</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>0.75</v>
+        <v>0.93619</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>0.5717</v>
+        <v>0.92793</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2607,19 +2764,19 @@
         <v>30</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>0.1011</v>
+        <v>0.01033</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>0.1865</v>
+        <v>0.01007</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>0.1787</v>
+        <v>0.00957</v>
       </c>
       <c r="F70" s="0" t="n">
-        <v>0.2134</v>
+        <v>0.00988</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2627,19 +2784,19 @@
         <v>30</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>0.0253</v>
+        <v>0.00273</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>0.0411</v>
+        <v>0.00267</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>0.0404</v>
+        <v>0.0028</v>
       </c>
       <c r="F71" s="0" t="n">
-        <v>0.0485</v>
+        <v>0.00276</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2647,19 +2804,19 @@
         <v>31</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>0.7414</v>
+        <v>0.70655</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>0.7522</v>
+        <v>0.71034</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>0.7398</v>
+        <v>0.68512</v>
       </c>
       <c r="F72" s="0" t="n">
-        <v>0.7314</v>
+        <v>0.68665</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2667,19 +2824,19 @@
         <v>31</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>0.6378</v>
+        <v>0.64428</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>0.6406</v>
+        <v>0.59034</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>0.5799</v>
+        <v>0.57129</v>
       </c>
       <c r="F73" s="0" t="n">
-        <v>0.6217</v>
+        <v>0.57168</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2687,19 +2844,19 @@
         <v>31</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>0.8289</v>
+        <v>0.7454</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>0.828</v>
+        <v>0.77681</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>0.8236</v>
+        <v>0.74995</v>
       </c>
       <c r="F74" s="0" t="n">
-        <v>0.6217</v>
+        <v>0.57168</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2707,19 +2864,19 @@
         <v>31</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>0.1912</v>
+        <v>0.10112</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>0.1874</v>
+        <v>0.18647</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>0.2437</v>
+        <v>0.17866</v>
       </c>
       <c r="F75" s="0" t="n">
-        <v>0.186</v>
+        <v>0.21345</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2727,19 +2884,19 @@
         <v>31</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>0.0461</v>
+        <v>0.02531</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>0.0445</v>
+        <v>0.04113</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>0.0523</v>
+        <v>0.04042</v>
       </c>
       <c r="F76" s="0" t="n">
-        <v>0.0458</v>
+        <v>0.04852</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2747,19 +2904,19 @@
         <v>32</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>0.8448</v>
+        <v>0.77645</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>0.8503</v>
+        <v>0.77605</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>0.8442</v>
+        <v>0.7753</v>
       </c>
       <c r="F77" s="0" t="n">
-        <v>0.8391</v>
+        <v>0.77718</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2767,19 +2924,19 @@
         <v>32</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>0.8172</v>
+        <v>0.77142</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>0.8179</v>
+        <v>0.77123</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>0.8168</v>
+        <v>0.77036</v>
       </c>
       <c r="F78" s="0" t="n">
-        <v>0.808</v>
+        <v>0.77259</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2787,19 +2944,19 @@
         <v>32</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>0.8643</v>
+        <v>0.78064</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>0.8801</v>
+        <v>0.77905</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>0.8719</v>
+        <v>0.7787</v>
       </c>
       <c r="F79" s="0" t="n">
-        <v>0.808</v>
+        <v>0.77259</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2807,19 +2964,19 @@
         <v>32</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>0.0471</v>
+        <v>0.00922</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>0.0622</v>
+        <v>0.00782</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>0.0552</v>
+        <v>0.00835</v>
       </c>
       <c r="F80" s="0" t="n">
-        <v>0.0585</v>
+        <v>0.00799</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2827,19 +2984,4663 @@
         <v>32</v>
       </c>
       <c r="B81" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>0.00271</v>
+      </c>
+      <c r="D81" s="0" t="n">
+        <v>0.00223</v>
+      </c>
+      <c r="E81" s="0" t="n">
+        <v>0.00256</v>
+      </c>
+      <c r="F81" s="0" t="n">
+        <v>0.00218</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>0.74142</v>
+      </c>
+      <c r="D82" s="0" t="n">
+        <v>0.75222</v>
+      </c>
+      <c r="E82" s="0" t="n">
+        <v>0.73984</v>
+      </c>
+      <c r="F82" s="0" t="n">
+        <v>0.73138</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>0.63778</v>
+      </c>
+      <c r="D83" s="0" t="n">
+        <v>0.64055</v>
+      </c>
+      <c r="E83" s="0" t="n">
+        <v>0.57987</v>
+      </c>
+      <c r="F83" s="0" t="n">
+        <v>0.62169</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B84" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="C81" s="0" t="n">
-        <v>0.0137</v>
-      </c>
-      <c r="D81" s="0" t="n">
-        <v>0.0152</v>
-      </c>
-      <c r="E81" s="0" t="n">
-        <v>0.0149</v>
-      </c>
-      <c r="F81" s="0" t="n">
-        <v>0.0161</v>
+      <c r="C84" s="0" t="n">
+        <v>0.82893</v>
+      </c>
+      <c r="D84" s="0" t="n">
+        <v>0.82798</v>
+      </c>
+      <c r="E84" s="0" t="n">
+        <v>0.8236</v>
+      </c>
+      <c r="F84" s="0" t="n">
+        <v>0.62169</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>0.19115</v>
+      </c>
+      <c r="D85" s="0" t="n">
+        <v>0.18742</v>
+      </c>
+      <c r="E85" s="0" t="n">
+        <v>0.24373</v>
+      </c>
+      <c r="F85" s="0" t="n">
+        <v>0.18597</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>0.04612</v>
+      </c>
+      <c r="D86" s="0" t="n">
+        <v>0.04453</v>
+      </c>
+      <c r="E86" s="0" t="n">
+        <v>0.05227</v>
+      </c>
+      <c r="F86" s="0" t="n">
+        <v>0.04584</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>0.84482</v>
+      </c>
+      <c r="D87" s="0" t="n">
+        <v>0.85028</v>
+      </c>
+      <c r="E87" s="0" t="n">
+        <v>0.84424</v>
+      </c>
+      <c r="F87" s="0" t="n">
+        <v>0.8391</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>0.81718</v>
+      </c>
+      <c r="D88" s="0" t="n">
+        <v>0.81793</v>
+      </c>
+      <c r="E88" s="0" t="n">
+        <v>0.81675</v>
+      </c>
+      <c r="F88" s="0" t="n">
+        <v>0.80803</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>0.86427</v>
+      </c>
+      <c r="D89" s="0" t="n">
+        <v>0.8801</v>
+      </c>
+      <c r="E89" s="0" t="n">
+        <v>0.87193</v>
+      </c>
+      <c r="F89" s="0" t="n">
+        <v>0.80803</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>0.04709</v>
+      </c>
+      <c r="D90" s="0" t="n">
+        <v>0.06217</v>
+      </c>
+      <c r="E90" s="0" t="n">
+        <v>0.05517</v>
+      </c>
+      <c r="F90" s="0" t="n">
+        <v>0.0585</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>0.01373</v>
+      </c>
+      <c r="D91" s="0" t="n">
+        <v>0.01516</v>
+      </c>
+      <c r="E91" s="0" t="n">
+        <v>0.01494</v>
+      </c>
+      <c r="F91" s="0" t="n">
+        <v>0.01614</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:R19"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.8125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="16.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="17.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="14.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="14.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="17.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="20.25"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0.84692</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>0.85207</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>0.71591</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>0.66964</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>0.96429</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>0.66964</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>0.0653</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>0.0746</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>-0.00515</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>-0.05195</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>0.0487</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <v>0.0293</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>24422</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>12210</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0.92768</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0.92727</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>0.92275</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>0.92294</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>0.9314</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>0.92294</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>0.00175</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>0.00177</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>0.00041</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>-0.00056</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>0.00194</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>0.00061</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>20000</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0.97265</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0.97589</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>0.94382</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>0.94471</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>0.99449</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>0.94471</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>0.01154</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>0.01338</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>-0.00324</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>-0.01298</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>0.01707</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>0.00698</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>3500</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>1750</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0.99637</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0.99637</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0.99432</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>0.99465</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>0.9984</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>0.99465</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>0.00113</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>0.00109</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>-1E-005</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>-0.00066</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>0.00106</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>0.00046</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>650</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0.863</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0.86101</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0.78644</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0.74798</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0.89357</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>0.74798</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>0.02291</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>0.03352</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>0.00198</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>-0.0207</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>0.03847</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>0.01562</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>9510</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>4755</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0.93065</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0.93109</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>0.92482</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>0.92501</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>0.93429</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>0.92501</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>0.00302</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>0.00321</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>-0.00044</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>-0.00443</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>0.00171</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>0.0017</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>3700</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>1850</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0.99699</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>0.99724</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0.99544</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>0.9958</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>0.9979</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>0.9958</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>0.00062</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>0.00052</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>-0.00026</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>-0.0009</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>0.00025</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <v>0.00026</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>2301</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>1150</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0.98594</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>0.98678</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>0.98123</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>0.98336</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>0.98979</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>0.98336</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>0.00254</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>0.00221</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>-0.00084</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>-0.00307</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>0.00101</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <v>0.00103</v>
+      </c>
+      <c r="R9" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>3700</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>1850</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>0.99586</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>0.99523</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>0.99496</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>0.99401</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>0.99686</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>0.99401</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>0.00065</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>0.00092</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>0.00062</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>-0.00036</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>0.00133</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>0.00046</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>346</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>172</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0.91239</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0.90847</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>0.84894</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>0.83937</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>0.94293</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>0.83937</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>0.0223</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>0.0221</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>0.00392</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>-0.01135</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>0.01497</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>0.00699</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>154</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0.67879</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>0.65228</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>0.55759</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>0.51741</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>0.77277</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>0.51741</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>0.05509</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>0.06385</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>0.02652</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>-0.03125</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>0.14554</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <v>0.0498</v>
+      </c>
+      <c r="R12" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>1558</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>1640</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>819</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0.97111</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0.9746</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>0.93896</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>0.95307</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>0.99074</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>0.95307</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>0.01351</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>0.00953</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>-0.00349</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>-0.021</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>0.00717</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <v>0.00758</v>
+      </c>
+      <c r="R13" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>166</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>3300</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>1649</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0.99803</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>0.99651</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>0.9949</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>0.99258</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>0.99957</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>0.99258</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>0.00124</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>0.00166</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>0.00152</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>-0.00133</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>0.00414</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <v>0.00118</v>
+      </c>
+      <c r="R14" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>22606</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>11302</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0.93195</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>0.93177</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>0.92644</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>0.92793</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>0.93677</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>0.92793</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>0.00273</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>0.00276</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>0.00017</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>-0.00194</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <v>0.00368</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <v>0.00139</v>
+      </c>
+      <c r="R15" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>1292</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>646</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0.70655</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>0.68665</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>0.64428</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>0.57168</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>0.7454</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>0.57168</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>0.02531</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>0.04852</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <v>0.0199</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <v>-0.06311</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <v>0.10824</v>
+      </c>
+      <c r="Q16" s="0" t="n">
+        <v>0.04253</v>
+      </c>
+      <c r="R16" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>1922</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>72616</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>36307</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>0.77645</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>0.77718</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>0.77142</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>0.77259</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>0.78064</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>0.77259</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>0.00271</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>0.00218</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>-0.00073</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <v>-0.00333</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <v>0.0013</v>
+      </c>
+      <c r="Q17" s="0" t="n">
+        <v>0.00127</v>
+      </c>
+      <c r="R17" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>1652</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>825</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>0.74142</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>0.73138</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>0.63778</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>0.62169</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>0.82893</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>0.62169</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>0.04612</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>0.04584</v>
+      </c>
+      <c r="N18" s="0" t="n">
+        <v>0.01004</v>
+      </c>
+      <c r="O18" s="0" t="n">
+        <v>-0.06053</v>
+      </c>
+      <c r="P18" s="0" t="n">
+        <v>0.08999</v>
+      </c>
+      <c r="Q18" s="0" t="n">
+        <v>0.03467</v>
+      </c>
+      <c r="R18" s="0" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>7594</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>3796</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>0.84482</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>0.8391</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>0.81718</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>0.80803</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>0.86427</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>0.80803</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>0.01373</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>0.01614</v>
+      </c>
+      <c r="N19" s="0" t="n">
+        <v>0.00571</v>
+      </c>
+      <c r="O19" s="0" t="n">
+        <v>-0.01168</v>
+      </c>
+      <c r="P19" s="0" t="n">
+        <v>0.02037</v>
+      </c>
+      <c r="Q19" s="0" t="n">
+        <v>0.00895</v>
+      </c>
+      <c r="R19" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:R19"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.8125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="16.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="17.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="14.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="14.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="17.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="20.25"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0.8513</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>0.85207</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>0.74513</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>0.66964</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>0.95779</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>0.66964</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>0.06485</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>0.0746</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>-0.00077</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>-0.03896</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>0.07549</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <v>0.02744</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>24422</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>12210</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0.92743</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0.92727</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>0.92352</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>0.92294</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>0.93054</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>0.92294</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>0.00153</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>0.00177</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>0.00016</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>-0.00085</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>0.00097</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>0.00055</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>20000</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0.9733</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0.97589</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>0.93884</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>0.94471</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>0.98969</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>0.94471</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>0.01301</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>0.01338</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>-0.0026</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>-0.01156</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>0.01564</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>0.00586</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>3500</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>1750</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0.9966</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0.99637</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0.99452</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>0.99465</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>0.99834</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>0.99465</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>0.00109</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>0.00109</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>0.00023</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>-0.00037</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>0.00101</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>0.00035</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>650</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0.85876</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0.86101</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0.76598</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0.74798</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0.8949</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>0.74798</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>0.02876</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>0.03352</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>-0.00226</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>-0.02196</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>0.02824</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>0.01215</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>9510</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>4755</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0.93155</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0.93109</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>0.92497</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>0.92501</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>0.93505</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>0.92501</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>0.00284</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>0.00321</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>0.00046</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>-0.00233</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>0.00363</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>0.00147</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>3700</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>1850</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0.99687</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>0.99724</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0.99554</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>0.9958</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>0.99829</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>0.9958</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>0.00066</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>0.00052</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>-0.00038</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>-0.00103</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>6E-005</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <v>0.00031</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>2301</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>1150</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0.9872</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>0.98678</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>0.98401</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>0.98336</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>0.99035</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>0.98336</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>0.00207</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>0.00221</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>0.00042</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>-0.00101</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>0.00175</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <v>0.00076</v>
+      </c>
+      <c r="R9" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>3700</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>1850</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>0.99563</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>0.99523</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>0.9945</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>0.99401</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>0.99666</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>0.99401</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>0.00066</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>0.00092</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>0.00039</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>-0.0002</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>0.00127</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>346</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>172</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0.91311</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0.90847</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>0.85687</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>0.83937</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>0.94504</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>0.83937</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>0.02203</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>0.0221</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>0.00465</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>-0.00991</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>0.0175</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>0.00815</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>154</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0.68315</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>0.65228</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>0.56027</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>0.51741</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>0.77232</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>0.51741</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>0.0583</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>0.06385</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>0.03087</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>-0.025</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>0.13839</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <v>0.04214</v>
+      </c>
+      <c r="R12" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>1558</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>1640</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>819</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0.97245</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0.9746</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>0.94741</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>0.95307</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>0.98761</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>0.95307</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>0.01173</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>0.00953</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>-0.00215</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>-0.01125</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>0.0066</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <v>0.00478</v>
+      </c>
+      <c r="R13" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>166</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>3300</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>1649</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0.99753</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>0.99651</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>0.99514</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>0.99258</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>0.99937</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>0.99258</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>0.00138</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>0.00166</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>0.00102</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>-0.00085</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>0.00267</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <v>0.00082</v>
+      </c>
+      <c r="R14" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>22606</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>11302</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0.93214</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>0.93177</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>0.9269</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>0.92793</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>0.93697</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>0.92793</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>0.00267</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>0.00276</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>0.00037</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>-0.00102</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <v>0.00213</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <v>0.00103</v>
+      </c>
+      <c r="R15" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>1292</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>646</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0.71034</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>0.68665</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>0.59034</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>0.57168</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>0.77681</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>0.57168</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>0.04113</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>0.04852</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <v>0.02369</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <v>-0.03766</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <v>0.08791</v>
+      </c>
+      <c r="Q16" s="0" t="n">
+        <v>0.03466</v>
+      </c>
+      <c r="R16" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>1922</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>72616</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>36307</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>0.77605</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>0.77718</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>0.77123</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>0.77259</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>0.77905</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>0.77259</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>0.00223</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>0.00218</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>-0.00113</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <v>-0.00269</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <v>0.00024</v>
+      </c>
+      <c r="Q17" s="0" t="n">
+        <v>0.00082</v>
+      </c>
+      <c r="R17" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>1652</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>825</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>0.75222</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>0.73138</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>0.64055</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>0.62169</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>0.82798</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>0.62169</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>0.04453</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>0.04584</v>
+      </c>
+      <c r="N18" s="0" t="n">
+        <v>0.02084</v>
+      </c>
+      <c r="O18" s="0" t="n">
+        <v>-0.04301</v>
+      </c>
+      <c r="P18" s="0" t="n">
+        <v>0.10361</v>
+      </c>
+      <c r="Q18" s="0" t="n">
+        <v>0.03331</v>
+      </c>
+      <c r="R18" s="0" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>7594</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>3796</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>0.85028</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>0.8391</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>0.81793</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>0.80803</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>0.8801</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>0.80803</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>0.01516</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>0.01614</v>
+      </c>
+      <c r="N19" s="0" t="n">
+        <v>0.01118</v>
+      </c>
+      <c r="O19" s="0" t="n">
+        <v>-0.0027</v>
+      </c>
+      <c r="P19" s="0" t="n">
+        <v>0.02789</v>
+      </c>
+      <c r="Q19" s="0" t="n">
+        <v>0.00926</v>
+      </c>
+      <c r="R19" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:R19"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.8125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="16.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="17.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="14.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="14.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="17.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="20.25"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0.87037</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>0.85207</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>0.72727</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>0.66964</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>0.98701</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>0.66964</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>0.06413</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>0.0746</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>0.0183</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>-0.03571</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>0.06331</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <v>0.02979</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>24422</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>12210</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0.92749</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0.92727</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>0.92312</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>0.92294</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>0.93121</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>0.92294</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>0.00161</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>0.00177</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>0.00022</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>-0.00053</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>0.00125</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>0.00048</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>20000</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0.96779</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0.97589</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>0.94009</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>0.94471</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>0.98827</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>0.94471</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>0.01185</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>0.01338</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>-0.00811</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>-0.01902</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>0.00498</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>0.00564</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>3500</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>1750</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0.99619</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0.99637</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0.99425</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>0.99465</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>0.99825</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>0.99465</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>0.00118</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>0.00109</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>-0.00018</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>-0.00136</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>0.00046</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>0.00044</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>650</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0.86789</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0.86101</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0.7562</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0.74798</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0.90012</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>0.74798</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>0.03164</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>0.03352</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>0.00688</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>-0.00993</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>0.02897</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>0.01142</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>9510</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>4755</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0.93023</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0.93109</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>0.92453</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>0.92501</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>0.93461</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>0.92501</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>0.00272</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>0.00321</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>-0.00086</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>-0.00379</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>0.00127</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>0.00142</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>3700</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>1850</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0.9966</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>0.99724</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0.99501</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>0.9958</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>0.99824</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>0.9958</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>0.00072</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>0.00052</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>-0.00065</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>-0.0014</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>2301</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>1150</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0.98646</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>0.98678</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>0.98186</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>0.98336</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>0.98969</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>0.98336</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>0.00236</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>0.00221</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>-0.00031</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>-0.00156</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>0.00116</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <v>0.00088</v>
+      </c>
+      <c r="R9" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>3700</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>1850</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>0.99558</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>0.99523</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>0.99394</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>0.99401</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>0.9968</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>0.99401</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>0.00077</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>0.00092</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>0.00034</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>-0.00031</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>0.00111</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>0.00046</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>346</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>172</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0.90503</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0.90847</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>0.84682</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>0.83937</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>0.92789</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>0.83937</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>0.02057</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>0.0221</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>-0.00343</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>-0.01852</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>0.01025</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>0.00907</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>154</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0.65129</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>0.65228</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>0.46786</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>0.51741</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>0.7433</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>0.51741</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>0.06949</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>0.06385</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>-0.00098</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>-0.04955</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>0.07098</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <v>0.03243</v>
+      </c>
+      <c r="R12" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>1558</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>1640</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>819</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0.97235</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0.9746</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>0.94129</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>0.95307</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>0.99194</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>0.95307</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>0.01329</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>0.00953</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>-0.00225</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>-0.01553</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>0.00708</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <v>0.00639</v>
+      </c>
+      <c r="R13" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>166</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>3300</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>1649</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0.99608</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>0.99651</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>0.99122</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>0.99258</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>0.9991</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>0.99258</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>0.00242</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>0.00166</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>-0.00042</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>-0.00319</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>0.00136</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <v>0.0014</v>
+      </c>
+      <c r="R14" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>22606</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>11302</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0.93118</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>0.93177</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>0.92662</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>0.92793</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>0.93619</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>0.92793</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>0.0028</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>0.00276</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>-0.00059</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>-0.00219</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <v>0.00118</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <v>0.00098</v>
+      </c>
+      <c r="R15" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>1292</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>646</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0.68512</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>0.68665</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>0.57129</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>0.57168</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>0.74995</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>0.57168</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>0.04042</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>0.04852</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <v>-0.00153</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <v>-0.07555</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <v>0.0441</v>
+      </c>
+      <c r="Q16" s="0" t="n">
+        <v>0.03334</v>
+      </c>
+      <c r="R16" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>1922</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>72616</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>36307</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>0.7753</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>0.77718</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>0.77036</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>0.77259</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>0.7787</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>0.77259</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>0.00256</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>0.00218</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>-0.00188</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <v>-0.00521</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <v>0.00106</v>
+      </c>
+      <c r="Q17" s="0" t="n">
+        <v>0.00151</v>
+      </c>
+      <c r="R17" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>1652</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>825</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>0.73984</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>0.73138</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>0.57987</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>0.62169</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>0.8236</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>0.62169</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>0.05227</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>0.04584</v>
+      </c>
+      <c r="N18" s="0" t="n">
+        <v>0.00846</v>
+      </c>
+      <c r="O18" s="0" t="n">
+        <v>-0.04976</v>
+      </c>
+      <c r="P18" s="0" t="n">
+        <v>0.10612</v>
+      </c>
+      <c r="Q18" s="0" t="n">
+        <v>0.03261</v>
+      </c>
+      <c r="R18" s="0" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>7594</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>3796</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>0.84424</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>0.8391</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>0.81675</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>0.80803</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>0.87193</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>0.80803</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>0.01494</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>0.01614</v>
+      </c>
+      <c r="N19" s="0" t="n">
+        <v>0.00514</v>
+      </c>
+      <c r="O19" s="0" t="n">
+        <v>-0.01525</v>
+      </c>
+      <c r="P19" s="0" t="n">
+        <v>0.02274</v>
+      </c>
+      <c r="Q19" s="0" t="n">
+        <v>0.00819</v>
+      </c>
+      <c r="R19" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:R19"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.8125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="16.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="17.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="14.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="14.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="17.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="20.25"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0.87037</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>0.85207</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>0.72727</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>0.66964</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>0.98701</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>0.66964</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>0.06413</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>0.0746</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>0.0183</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>-0.03571</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>0.06331</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <v>0.02979</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>24422</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>12210</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0.92768</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0.92727</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>0.92275</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>0.92294</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>0.9314</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>0.92294</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>0.00175</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>0.00177</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>0.00041</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>-0.00056</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>0.00194</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>0.00061</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>20000</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0.97265</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0.97589</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>0.94382</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>0.94471</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>0.99449</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>0.94471</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>0.01154</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>0.01338</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>-0.00324</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>-0.01298</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>0.01707</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>0.00698</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>3500</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>1750</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0.9966</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0.99637</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0.99452</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>0.99465</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>0.99834</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>0.99465</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>0.00109</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>0.00109</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>0.00023</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>-0.00037</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>0.00101</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>0.00035</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>650</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0.86789</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0.86101</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0.7562</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0.74798</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0.90012</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>0.74798</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>0.03164</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>0.03352</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>0.00688</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>-0.00993</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>0.02897</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>0.01142</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>9510</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>4755</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0.93155</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0.93109</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>0.92497</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>0.92501</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>0.93505</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>0.92501</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>0.00284</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>0.00321</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>0.00046</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>-0.00233</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>0.00363</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>0.00147</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>3700</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>1850</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0.99699</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>0.99724</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0.99544</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>0.9958</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>0.9979</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>0.9958</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>0.00062</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>0.00052</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>-0.00026</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>-0.0009</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>0.00025</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <v>0.00026</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>2301</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>1150</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0.9872</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>0.98678</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>0.98401</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>0.98336</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>0.99035</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>0.98336</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>0.00207</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>0.00221</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>0.00042</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>-0.00101</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>0.00175</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <v>0.00076</v>
+      </c>
+      <c r="R9" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>3700</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>1850</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>0.99586</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>0.99523</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>0.99496</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>0.99401</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>0.99686</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>0.99401</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>0.00065</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>0.00092</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>0.00062</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>-0.00036</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>0.00133</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>0.00046</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>346</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>172</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0.91311</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0.90847</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>0.85687</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>0.83937</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>0.94504</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>0.83937</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>0.02203</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>0.0221</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>0.00465</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>-0.00991</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>0.0175</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>0.00815</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>154</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0.68315</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>0.65228</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>0.56027</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>0.51741</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>0.77232</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>0.51741</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>0.0583</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>0.06385</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>0.03087</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>-0.025</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>0.13839</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <v>0.04214</v>
+      </c>
+      <c r="R12" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>1558</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>1640</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>819</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0.97245</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0.9746</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>0.94741</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>0.95307</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>0.98761</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>0.95307</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>0.01173</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>0.00953</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>-0.00215</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>-0.01125</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>0.0066</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <v>0.00478</v>
+      </c>
+      <c r="R13" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>166</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>3300</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>1649</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0.99803</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>0.99651</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>0.9949</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>0.99258</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>0.99957</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>0.99258</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>0.00124</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>0.00166</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>0.00152</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>-0.00133</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>0.00414</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <v>0.00118</v>
+      </c>
+      <c r="R14" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>22606</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>11302</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0.93195</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>0.93177</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>0.92644</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>0.92793</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>0.93677</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>0.92793</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>0.00273</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>0.00276</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>0.00017</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>-0.00194</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <v>0.00368</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <v>0.00139</v>
+      </c>
+      <c r="R15" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>1292</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>646</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0.71034</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>0.68665</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>0.59034</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>0.57168</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>0.77681</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>0.57168</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>0.04113</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>0.04852</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <v>0.02369</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <v>-0.03766</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <v>0.08791</v>
+      </c>
+      <c r="Q16" s="0" t="n">
+        <v>0.03466</v>
+      </c>
+      <c r="R16" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>1922</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>72616</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>36307</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>0.77645</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>0.77718</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>0.77142</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>0.77259</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>0.78064</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>0.77259</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>0.00271</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>0.00218</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>-0.00073</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <v>-0.00333</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <v>0.0013</v>
+      </c>
+      <c r="Q17" s="0" t="n">
+        <v>0.00127</v>
+      </c>
+      <c r="R17" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>1652</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>825</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>0.75222</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>0.73138</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>0.64055</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>0.62169</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>0.82798</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>0.62169</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>0.04453</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>0.04584</v>
+      </c>
+      <c r="N18" s="0" t="n">
+        <v>0.02084</v>
+      </c>
+      <c r="O18" s="0" t="n">
+        <v>-0.04301</v>
+      </c>
+      <c r="P18" s="0" t="n">
+        <v>0.10361</v>
+      </c>
+      <c r="Q18" s="0" t="n">
+        <v>0.03331</v>
+      </c>
+      <c r="R18" s="0" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>7594</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>3796</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>0.85028</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>0.8391</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>0.81793</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>0.80803</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>0.8801</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>0.80803</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>0.01516</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>0.01614</v>
+      </c>
+      <c r="N19" s="0" t="n">
+        <v>0.01118</v>
+      </c>
+      <c r="O19" s="0" t="n">
+        <v>-0.0027</v>
+      </c>
+      <c r="P19" s="0" t="n">
+        <v>0.02789</v>
+      </c>
+      <c r="Q19" s="0" t="n">
+        <v>0.00926</v>
+      </c>
+      <c r="R19" s="0" t="n">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
